--- a/output/Mozambique_aggregated.xlsx
+++ b/output/Mozambique_aggregated.xlsx
@@ -20,13 +20,184 @@
     <t xml:space="preserve">amountUSD</t>
   </si>
   <si>
+    <t xml:space="preserve">Brazil, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExxonMobil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States of America, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qatar, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia, Government of</t>
+  </si>
+  <si>
     <t xml:space="preserve">European Commission's Humanitarian Aid and Civil Protection Department</t>
   </si>
   <si>
+    <t xml:space="preserve">France, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swiss Solidarity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disasters Emergency Committee Cyclone Idai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korea, Republic of, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samaritan's Purse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Nations Children's Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finland, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TechnipFMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuwait, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden, Government of</t>
+  </si>
+  <si>
     <t xml:space="preserve">Central Emergency Response Fund</t>
   </si>
   <si>
-    <t xml:space="preserve">Austria, Government of</t>
+    <t xml:space="preserve">UNICEF National Committee/Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Fund for UNICEF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxembourg, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Labour Organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Food Programme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monaco, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private (individuals &amp; organizations)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malta, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Arab Emirates, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Organization for Migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UN Delivering AS ONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russian Federation, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Commission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liechtenstein, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jersey Overseas Aid</t>
   </si>
   <si>
     <t xml:space="preserve">India, Government of</t>
@@ -35,208 +206,37 @@
     <t xml:space="preserve">Morocco, Government of</t>
   </si>
   <si>
-    <t xml:space="preserve">Portugal, Government of</t>
-  </si>
-  <si>
     <t xml:space="preserve">Turkey, Government of</t>
   </si>
   <si>
-    <t xml:space="preserve">United States of America, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brazil, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TechnipFMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ExxonMobil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norway, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Arab Emirates, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denmark, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finland, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgium, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korea, Republic of, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Food Programme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qatar, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ireland, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monaco, Government of</t>
-  </si>
-  <si>
     <t xml:space="preserve">Colombia, Government of</t>
   </si>
   <si>
-    <t xml:space="preserve">UNICEF National Committee/Australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Denmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Netherlands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Norway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US Fund for UNICEF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Portugal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Private (individuals &amp; organizations)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuwait, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malta, Government of</t>
-  </si>
-  <si>
     <t xml:space="preserve">Egypt, Government of</t>
   </si>
   <si>
+    <t xml:space="preserve">Saudi Arabia (Kingdom of), Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
     <t xml:space="preserve">United Nations Population Fund</t>
   </si>
   <si>
-    <t xml:space="preserve">Spain, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samaritan's Purse</t>
+    <t xml:space="preserve">New Zealand, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan, Government of</t>
   </si>
   <si>
     <t xml:space="preserve">Food &amp; Agriculture Organization of the United Nations</t>
   </si>
   <si>
-    <t xml:space="preserve">United Nations Children's Fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">European Commission</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Zealand, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swiss Solidarity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disasters Emergency Committee Cyclone Idai</t>
+    <t xml:space="preserve">Netherlands, Government of</t>
   </si>
   <si>
     <t xml:space="preserve">ACT Alliance / Church of Sweden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luxembourg, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International Organization for Migration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UN Delivering AS ONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russian Federation, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netherlands, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">International Labour Organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liechtenstein, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estonia, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jersey Overseas Aid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijan, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi Arabia (Kingdom of), Government of</t>
   </si>
 </sst>
 </file>
@@ -581,7 +581,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>40660722</v>
+        <v>113766</v>
       </c>
     </row>
     <row r="3">
@@ -589,7 +589,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>35944553</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="4">
@@ -597,7 +597,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>4383176</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="5">
@@ -605,7 +605,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>57002344</v>
       </c>
     </row>
     <row r="6">
@@ -613,7 +613,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>138658722</v>
       </c>
     </row>
     <row r="7">
@@ -629,7 +629,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="9">
@@ -637,7 +637,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>138658722</v>
+        <v>1938222</v>
       </c>
     </row>
     <row r="10">
@@ -645,7 +645,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>113766</v>
+        <v>18131405</v>
       </c>
     </row>
     <row r="11">
@@ -653,7 +653,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>8733690</v>
+        <v>1281514</v>
       </c>
     </row>
     <row r="12">
@@ -661,7 +661,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>1116435</v>
+        <v>884643</v>
       </c>
     </row>
     <row r="13">
@@ -669,7 +669,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>100000</v>
+        <v>40660722</v>
       </c>
     </row>
     <row r="14">
@@ -677,7 +677,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>300000</v>
+        <v>1116435</v>
       </c>
     </row>
     <row r="15">
@@ -685,7 +685,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>250000</v>
+        <v>3448558</v>
       </c>
     </row>
     <row r="16">
@@ -693,7 +693,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>12188030</v>
+        <v>4760662</v>
       </c>
     </row>
     <row r="17">
@@ -701,7 +701,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>9577423</v>
+        <v>10400740</v>
       </c>
     </row>
     <row r="18">
@@ -709,7 +709,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>3886420</v>
+        <v>680000</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>2180000</v>
+        <v>138485</v>
       </c>
     </row>
     <row r="20">
@@ -725,7 +725,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>57002344</v>
+        <v>23952171</v>
       </c>
     </row>
     <row r="21">
@@ -733,7 +733,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>1938222</v>
+        <v>4383176</v>
       </c>
     </row>
     <row r="22">
@@ -749,7 +749,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>18131405</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="24">
@@ -757,7 +757,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>17176387</v>
+        <v>416490</v>
       </c>
     </row>
     <row r="25">
@@ -765,7 +765,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>3012377</v>
+        <v>9577423</v>
       </c>
     </row>
     <row r="26">
@@ -773,7 +773,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>680000</v>
+        <v>12188030</v>
       </c>
     </row>
     <row r="27">
@@ -781,7 +781,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>10949258</v>
+        <v>3886420</v>
       </c>
     </row>
     <row r="28">
@@ -789,7 +789,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>2940725</v>
+        <v>8733690</v>
       </c>
     </row>
     <row r="29">
@@ -797,7 +797,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>3000000</v>
+        <v>17176387</v>
       </c>
     </row>
     <row r="30">
@@ -805,7 +805,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>3448558</v>
+        <v>35944553</v>
       </c>
     </row>
     <row r="31">
@@ -813,7 +813,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>111483</v>
+        <v>25948</v>
       </c>
     </row>
     <row r="32">
@@ -821,7 +821,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="n">
-        <v>50000</v>
+        <v>82889</v>
       </c>
     </row>
     <row r="33">
@@ -829,7 +829,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="n">
-        <v>25948</v>
+        <v>43694</v>
       </c>
     </row>
     <row r="34">
@@ -837,7 +837,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="n">
-        <v>82889</v>
+        <v>81901</v>
       </c>
     </row>
     <row r="35">
@@ -845,7 +845,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>43694</v>
+        <v>594377</v>
       </c>
     </row>
     <row r="36">
@@ -853,7 +853,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="n">
-        <v>81901</v>
+        <v>253631</v>
       </c>
     </row>
     <row r="37">
@@ -861,7 +861,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="n">
-        <v>594377</v>
+        <v>2454497</v>
       </c>
     </row>
     <row r="38">
@@ -869,7 +869,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="n">
-        <v>253631</v>
+        <v>336700</v>
       </c>
     </row>
     <row r="39">
@@ -877,7 +877,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="n">
-        <v>2454497</v>
+        <v>1129995</v>
       </c>
     </row>
     <row r="40">
@@ -885,7 +885,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="n">
-        <v>336700</v>
+        <v>7175368</v>
       </c>
     </row>
     <row r="41">
@@ -893,7 +893,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="n">
-        <v>1129995</v>
+        <v>278087</v>
       </c>
     </row>
     <row r="42">
@@ -901,7 +901,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>7175368</v>
+        <v>4493247</v>
       </c>
     </row>
     <row r="43">
@@ -909,7 +909,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="n">
-        <v>5119678</v>
+        <v>167052</v>
       </c>
     </row>
     <row r="44">
@@ -917,7 +917,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="n">
-        <v>1927645</v>
+        <v>171977</v>
       </c>
     </row>
     <row r="45">
@@ -925,7 +925,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="n">
-        <v>416490</v>
+        <v>33076</v>
       </c>
     </row>
     <row r="46">
@@ -933,7 +933,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="n">
-        <v>22548</v>
+        <v>5119678</v>
       </c>
     </row>
     <row r="47">
@@ -941,7 +941,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="n">
-        <v>237333</v>
+        <v>355000</v>
       </c>
     </row>
     <row r="48">
@@ -949,7 +949,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="n">
-        <v>475375</v>
+        <v>2940725</v>
       </c>
     </row>
     <row r="49">
@@ -957,7 +957,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="n">
-        <v>1281514</v>
+        <v>111483</v>
       </c>
     </row>
     <row r="50">
@@ -965,7 +965,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="n">
-        <v>138485</v>
+        <v>1927645</v>
       </c>
     </row>
     <row r="51">
@@ -973,7 +973,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="n">
-        <v>500000</v>
+        <v>22548</v>
       </c>
     </row>
     <row r="52">
@@ -981,7 +981,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="n">
-        <v>23952171</v>
+        <v>3012377</v>
       </c>
     </row>
     <row r="53">
@@ -989,7 +989,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="n">
-        <v>2688889</v>
+        <v>2180000</v>
       </c>
     </row>
     <row r="54">
@@ -997,7 +997,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="n">
-        <v>334672</v>
+        <v>497221</v>
       </c>
     </row>
     <row r="55">
@@ -1005,7 +1005,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="n">
-        <v>4760662</v>
+        <v>5062301</v>
       </c>
     </row>
     <row r="56">
@@ -1013,7 +1013,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="n">
-        <v>10400740</v>
+        <v>10949258</v>
       </c>
     </row>
     <row r="57">
@@ -1021,7 +1021,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="n">
-        <v>898848</v>
+        <v>647339</v>
       </c>
     </row>
     <row r="58">
@@ -1029,7 +1029,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="n">
-        <v>884643</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="59">
@@ -1037,7 +1037,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="n">
-        <v>278087</v>
+        <v>2688889</v>
       </c>
     </row>
     <row r="60">
@@ -1045,7 +1045,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="n">
-        <v>4493247</v>
+        <v>130775</v>
       </c>
     </row>
     <row r="61">
@@ -1053,7 +1053,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="n">
-        <v>497221</v>
+        <v>190856</v>
       </c>
     </row>
     <row r="62">
@@ -1061,7 +1061,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="n">
-        <v>5062301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1069,7 +1069,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="n">
-        <v>647339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1077,7 +1077,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1085,7 +1085,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="n">
-        <v>167052</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="66">
@@ -1093,7 +1093,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="n">
-        <v>171977</v>
+        <v>237333</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="n">
-        <v>3829322</v>
+        <v>105333</v>
       </c>
     </row>
     <row r="68">
@@ -1117,7 +1117,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="n">
-        <v>355000</v>
+        <v>475375</v>
       </c>
     </row>
     <row r="70">
@@ -1125,7 +1125,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="n">
-        <v>130775</v>
+        <v>334672</v>
       </c>
     </row>
     <row r="71">
@@ -1133,7 +1133,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="n">
-        <v>33076</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="72">
@@ -1141,7 +1141,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="n">
-        <v>190856</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="73">
@@ -1149,7 +1149,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="n">
-        <v>100000</v>
+        <v>3829322</v>
       </c>
     </row>
     <row r="74">
@@ -1157,7 +1157,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="n">
-        <v>105333</v>
+        <v>898848</v>
       </c>
     </row>
   </sheetData>
